--- a/CORTES DE CAJA/2025/11 NOVIEMBRE/LISTA DE LAS VENTAS SEMANA 47 DE NOVIEMBRE-25.xlsx
+++ b/CORTES DE CAJA/2025/11 NOVIEMBRE/LISTA DE LAS VENTAS SEMANA 47 DE NOVIEMBRE-25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A047D443-F84D-4433-B58E-15D418F7A892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C2446-929A-4A8B-ACB8-B01522618099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,27 +1178,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1238,8 +1217,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1249,6 +1246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1842,23 +1842,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1871,14 +1871,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>3670.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1909,19 +1909,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -1943,21 +1943,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>155</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -1979,19 +1979,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2010,19 +2010,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2041,19 +2041,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2075,19 +2075,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>630</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2109,19 +2109,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>1008</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2143,19 +2143,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2177,19 +2177,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>198</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2211,19 +2211,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2242,19 +2242,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2276,17 +2276,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>170.5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2308,17 +2308,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>630</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2337,17 +2337,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2366,17 +2366,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2395,17 +2395,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>240</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2424,17 +2424,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2453,12 +2453,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -2473,12 +2473,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -2507,14 +2507,14 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -2529,12 +2529,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -2549,18 +2549,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2575,16 +2575,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="30">
+      <c r="N27" s="20"/>
+      <c r="O27" s="23">
         <v>1550</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2599,12 +2599,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2619,12 +2619,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="34"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2639,12 +2639,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2659,12 +2659,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2679,12 +2679,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2699,12 +2699,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2719,12 +2719,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2739,12 +2739,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2759,12 +2759,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2779,12 +2779,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2799,12 +2799,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2819,12 +2819,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2839,12 +2839,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2859,12 +2859,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2879,12 +2879,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2899,12 +2899,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2919,12 +2919,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2939,12 +2939,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2959,12 +2959,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="37"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2979,12 +2979,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="34"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -2999,12 +2999,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3019,12 +3019,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3039,12 +3039,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="37"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3059,12 +3059,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3079,12 +3079,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="37"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3803,33 +3803,19 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3838,19 +3824,33 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="13" priority="1">
@@ -3895,23 +3895,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -3924,14 +3924,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>2685</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -3962,19 +3962,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -3996,21 +3996,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>354</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4032,19 +4032,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4066,19 +4066,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4100,19 +4100,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4131,19 +4131,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>270</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4165,19 +4165,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4196,19 +4196,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4230,19 +4230,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>495</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4261,19 +4261,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>134</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4292,19 +4292,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>1150</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -4314,17 +4314,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -4334,17 +4334,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -4354,17 +4354,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -4374,17 +4374,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -4394,17 +4394,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -4414,17 +4414,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -4434,12 +4434,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -4454,12 +4454,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -4488,14 +4488,14 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -4510,12 +4510,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -4536,12 +4536,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4562,10 +4562,10 @@
       <c r="N27" s="15">
         <v>1015</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4582,10 +4582,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4602,10 +4602,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4622,10 +4622,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4642,10 +4642,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4662,10 +4662,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4682,10 +4682,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4702,10 +4702,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4722,10 +4722,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4742,10 +4742,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4762,10 +4762,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4782,10 +4782,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4802,10 +4802,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4822,10 +4822,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4842,10 +4842,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4862,10 +4862,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4882,10 +4882,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4902,10 +4902,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5735,32 +5735,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -5804,23 +5804,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -5833,14 +5833,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>3817.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -5871,19 +5871,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>29</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -5902,21 +5902,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -5938,19 +5938,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -5972,19 +5972,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6006,19 +6006,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>220.5</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -6040,19 +6040,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -6074,19 +6074,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -6108,19 +6108,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -6142,19 +6142,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -6173,19 +6173,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -6207,19 +6207,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>180</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -6241,17 +6241,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -6273,17 +6273,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -6302,17 +6302,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -6331,17 +6331,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>55</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -6360,17 +6360,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -6392,17 +6392,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -6424,12 +6424,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -6456,12 +6456,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -6514,14 +6514,14 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -6545,12 +6545,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>144</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -6580,12 +6580,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6615,10 +6615,10 @@
       <c r="N27" s="15">
         <v>600</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6648,10 +6648,10 @@
       <c r="N28" s="15">
         <v>150</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6681,10 +6681,10 @@
       <c r="N29" s="15">
         <v>3464</v>
       </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6710,10 +6710,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6739,10 +6739,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6768,10 +6768,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6797,10 +6797,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6817,10 +6817,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6837,10 +6837,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6857,10 +6857,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6877,10 +6877,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6897,10 +6897,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6917,10 +6917,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6937,10 +6937,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6957,10 +6957,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -6977,10 +6977,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -6997,10 +6997,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -7017,10 +7017,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7850,32 +7850,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -7918,23 +7918,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -7947,14 +7947,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>1353.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -7985,17 +7985,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -8014,21 +8014,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>402</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8050,19 +8050,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8081,19 +8081,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8112,19 +8112,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8143,19 +8143,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>6</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -8177,19 +8177,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>49.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -8208,19 +8208,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -8239,19 +8239,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>750</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -8261,19 +8261,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -8283,19 +8283,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -8305,17 +8305,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8325,17 +8325,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -8345,17 +8345,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -8365,17 +8365,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -8385,17 +8385,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -8405,17 +8405,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8425,12 +8425,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -8445,12 +8445,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -8479,14 +8479,14 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -8501,12 +8501,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -8527,12 +8527,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -8549,10 +8549,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -8569,10 +8569,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8589,10 +8589,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8609,10 +8609,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8629,10 +8629,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8649,10 +8649,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8669,10 +8669,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8689,10 +8689,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8709,10 +8709,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8729,10 +8729,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8749,10 +8749,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8769,10 +8769,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8789,10 +8789,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8809,10 +8809,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8829,10 +8829,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8849,10 +8849,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8869,10 +8869,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8889,10 +8889,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9722,32 +9722,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -9791,23 +9791,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -9820,14 +9820,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>3004.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -9858,19 +9858,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>27</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -9892,21 +9892,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>495</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -9928,19 +9928,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>216</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -9962,19 +9962,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67.5</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -9993,19 +9993,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10024,19 +10024,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10058,19 +10058,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>159.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10089,19 +10089,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>52</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10120,19 +10120,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>120</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10151,19 +10151,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10182,19 +10182,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10213,17 +10213,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10242,17 +10242,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10274,17 +10274,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>266</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10306,17 +10306,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25.5</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -10338,17 +10338,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30.5</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -10370,17 +10370,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>154</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -10402,12 +10402,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -10434,12 +10434,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>72</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -10489,14 +10489,14 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>100</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -10523,12 +10523,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -10561,12 +10561,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -10599,12 +10599,12 @@
       <c r="N27" s="15">
         <v>1550</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -10634,12 +10634,12 @@
       <c r="N28" s="15">
         <v>1015</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10669,12 +10669,12 @@
       <c r="N29" s="15">
         <v>600</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10704,12 +10704,12 @@
       <c r="N30" s="15">
         <v>150</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10739,12 +10739,12 @@
       <c r="N31" s="15">
         <v>3464</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10765,12 +10765,12 @@
       <c r="N32" s="15">
         <v>7525</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10791,12 +10791,12 @@
       <c r="N33" s="15">
         <v>1500</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10817,12 +10817,12 @@
       <c r="N34" s="15">
         <v>15804</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10839,10 +10839,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10859,10 +10859,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10879,10 +10879,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10899,10 +10899,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10919,10 +10919,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10939,10 +10939,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -10959,10 +10959,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -10979,10 +10979,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -10999,10 +10999,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11019,10 +11019,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11852,32 +11852,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -11920,23 +11920,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -11949,14 +11949,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>1302.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -11987,19 +11987,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -12021,21 +12021,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>162</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12054,19 +12054,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12085,19 +12085,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>48</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12116,19 +12116,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>600</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12147,19 +12147,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12178,19 +12178,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12209,19 +12209,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>16</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12240,19 +12240,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>16</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12271,19 +12271,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>99</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12302,19 +12302,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12336,17 +12336,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12365,17 +12365,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>28</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12394,17 +12394,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12423,17 +12423,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12452,17 +12452,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -12472,17 +12472,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -12492,12 +12492,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -12512,12 +12512,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -12546,14 +12546,14 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -12568,12 +12568,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -12594,12 +12594,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -12620,10 +12620,10 @@
       <c r="N27" s="15">
         <v>220</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -12640,10 +12640,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -12660,10 +12660,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12680,10 +12680,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12700,10 +12700,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12720,10 +12720,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12740,10 +12740,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12760,10 +12760,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12780,10 +12780,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12800,10 +12800,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12820,10 +12820,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12840,10 +12840,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12860,10 +12860,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12880,10 +12880,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12900,10 +12900,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12920,10 +12920,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12940,10 +12940,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -12960,10 +12960,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13793,32 +13793,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -13861,23 +13861,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -13890,14 +13890,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -13928,12 +13928,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -13948,21 +13948,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -13972,19 +13972,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -13994,19 +13994,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -14016,19 +14016,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -14038,19 +14038,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -14060,19 +14060,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -14082,19 +14082,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14104,19 +14104,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14126,19 +14126,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14148,19 +14148,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14170,17 +14170,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14190,17 +14190,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14210,17 +14210,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14230,17 +14230,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14250,17 +14250,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -14270,17 +14270,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45983.806416666666</v>
+        <v>45985.754255439817</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14290,12 +14290,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -14310,12 +14310,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -14344,14 +14344,14 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -14366,12 +14366,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -14392,12 +14392,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -14414,10 +14414,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -14434,10 +14434,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14454,10 +14454,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14474,10 +14474,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14494,10 +14494,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14514,10 +14514,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14534,10 +14534,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14554,10 +14554,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14574,10 +14574,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14594,10 +14594,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14614,10 +14614,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14634,10 +14634,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14654,10 +14654,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14674,10 +14674,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14694,10 +14694,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14714,10 +14714,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14734,10 +14734,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14754,10 +14754,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15587,32 +15587,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
